--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1260,10 +1272,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1307,28 +1319,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1353,28 +1365,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1433,10 +1445,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1480,28 +1492,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1526,28 +1538,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1606,10 +1618,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1653,28 +1665,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1699,28 +1711,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1779,10 +1791,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1826,28 +1838,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1872,28 +1884,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1952,10 +1964,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1999,28 +2011,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2045,28 +2057,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2125,10 +2137,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2172,28 +2184,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2218,28 +2230,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2298,10 +2310,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2345,28 +2357,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2391,28 +2403,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2471,10 +2483,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2518,28 +2530,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2564,28 +2576,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2644,10 +2656,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2691,28 +2703,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2737,28 +2749,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2817,10 +2829,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2864,28 +2876,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2910,28 +2922,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2990,10 +3002,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3037,28 +3049,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3083,28 +3095,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3163,10 +3175,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3210,28 +3222,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3256,28 +3268,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4293,10 +4305,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4340,28 +4352,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4386,28 +4398,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4466,10 +4478,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4513,28 +4525,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4559,28 +4571,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4639,10 +4651,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4686,28 +4698,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4732,28 +4744,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4812,10 +4824,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4859,28 +4871,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4905,28 +4917,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4985,10 +4997,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5032,28 +5044,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5078,28 +5090,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5158,10 +5170,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5205,28 +5217,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5251,28 +5263,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5331,10 +5343,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5378,28 +5390,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5424,28 +5436,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5504,10 +5516,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5551,28 +5563,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5597,28 +5609,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5677,10 +5689,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5724,28 +5736,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5770,28 +5782,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5850,10 +5862,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5897,28 +5909,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5943,28 +5955,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6023,10 +6035,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6070,28 +6082,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6116,28 +6128,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6254,10 +6266,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6301,28 +6313,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6347,28 +6359,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6427,10 +6439,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6474,28 +6486,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6520,28 +6532,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6774,10 +6786,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6821,28 +6833,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6867,28 +6879,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6947,10 +6959,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
